--- a/SuMSO/materials for implementation/SuMSO vocabulary.xlsx
+++ b/SuMSO/materials for implementation/SuMSO vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaubb\Desktop\Sustainable-Meat-Systems-Ontology\SuMSO\materials for implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA885642-5DC3-42A5-A6F2-8EBBF7F99746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA168FA-FA4E-4A1D-A5C7-C899203E9EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8FC6B3B4-AE2C-481D-A7A9-F5814CA108D7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="775">
   <si>
     <t>Terms</t>
   </si>
@@ -2359,6 +2359,9 @@
   </si>
   <si>
     <t>FSSMF Pillar (primary pertinence)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population </t>
   </si>
 </sst>
 </file>
@@ -2897,10 +2900,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M772"/>
+  <dimension ref="A1:M773"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9425,6 +9428,14 @@
         <v>61</v>
       </c>
     </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B773" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H772">
     <sortCondition ref="B750:B772"/>

--- a/SuMSO/materials for implementation/SuMSO vocabulary.xlsx
+++ b/SuMSO/materials for implementation/SuMSO vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaubb\Desktop\Sustainable-Meat-Systems-Ontology\SuMSO\materials for implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA168FA-FA4E-4A1D-A5C7-C899203E9EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BAAF3A-9608-4041-9EC0-E8ED759200C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8FC6B3B4-AE2C-481D-A7A9-F5814CA108D7}"/>
   </bookViews>
@@ -2902,8 +2902,8 @@
   </sheetPr>
   <dimension ref="A1:M773"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A754" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B773" sqref="A773:B773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4773,17 +4773,16 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C226" s="5"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>60</v>
@@ -4792,58 +4791,59 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C228" s="5"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C228" s="5"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
+      <c r="B229" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C229" s="5"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C229" s="5"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B230" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C230" s="5"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B231" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
+      <c r="B232" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C232" s="5"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B233" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C233" s="5"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>60</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>60</v>
@@ -4859,24 +4859,23 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="B236" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C237" s="5"/>
+      <c r="B237" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>60</v>
@@ -4885,7 +4884,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>60</v>
@@ -4894,95 +4893,96 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C240" s="5"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C240" s="5"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="4" t="s">
+      <c r="B241" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C241" s="5"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C241" s="5"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="7" t="s">
+      <c r="B242" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C242" s="5"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B242" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C242" s="5"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C243" s="5"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C244" s="5"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C244" s="5"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="7" t="s">
+      <c r="B245" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C245" s="5"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B245" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C245" s="5"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="9" t="s">
+      <c r="B246" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C246" s="5"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="B246" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C247" s="5"/>
+      <c r="B247" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C248" s="5"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C248" s="5"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B249" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C249" s="5"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>60</v>
@@ -4990,50 +4990,49 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B251" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C251" s="5"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="9" t="s">
-        <v>523</v>
-      </c>
       <c r="B252" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="C252" s="5"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="B253" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="2" t="s">
+      <c r="B254" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C254" s="5"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="4" t="s">
+      <c r="B255" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C255" s="5"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C255" s="5"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>60</v>
@@ -5042,7 +5041,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>60</v>
@@ -5051,7 +5050,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>60</v>
@@ -5060,93 +5059,93 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C259" s="5"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C259" s="5"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
+      <c r="B260" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C260" s="5"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C260" s="5"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B261" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C261" s="5"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="B262" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C263" s="5"/>
+      <c r="B263" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C264" s="5"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C264" s="5"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B265" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C265" s="5"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="B266" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="7" t="s">
+      <c r="B267" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B267" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C267" s="5"/>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C268" s="5"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>60</v>
@@ -5155,7 +5154,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>60</v>
@@ -5164,7 +5163,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>60</v>
@@ -5173,34 +5172,34 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C272" s="5"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C272" s="5"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="2" t="s">
+      <c r="B273" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C273" s="5"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C273" s="5"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="4" t="s">
+      <c r="B274" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C274" s="5"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C274" s="5"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>60</v>
@@ -5209,7 +5208,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>533</v>
+        <v>256</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>60</v>
@@ -5218,16 +5217,16 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C277" s="5"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C277" s="5"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>60</v>
@@ -5236,16 +5235,16 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C279" s="5"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C279" s="5"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>60</v>
@@ -5254,16 +5253,16 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C281" s="5"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C281" s="5"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>60</v>
@@ -5272,7 +5271,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>60</v>
@@ -5281,16 +5280,16 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C284" s="5"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C284" s="5"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>60</v>
@@ -5299,7 +5298,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>60</v>
@@ -5308,16 +5307,16 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C287" s="5"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C287" s="5"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>60</v>
@@ -5326,25 +5325,25 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C289" s="5"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="3" t="s">
+      <c r="B290" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C290" s="5"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C290" s="5"/>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>60</v>
@@ -5353,7 +5352,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>60</v>
@@ -5362,16 +5361,16 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C293" s="5"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C293" s="5"/>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>60</v>
@@ -5380,7 +5379,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
-        <v>475</v>
+        <v>88</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>60</v>
@@ -5389,16 +5388,16 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C296" s="5"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C296" s="5"/>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>60</v>
@@ -5407,16 +5406,16 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C298" s="5"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C298" s="5"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>60</v>
@@ -5425,7 +5424,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>60</v>
@@ -5434,7 +5433,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>60</v>
@@ -5443,7 +5442,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>60</v>
@@ -5452,7 +5451,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>60</v>
@@ -5461,7 +5460,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>60</v>
@@ -5470,43 +5469,43 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C305" s="5"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C305" s="5"/>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="3" t="s">
+      <c r="B306" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C306" s="5"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C306" s="5"/>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
+      <c r="B307" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C307" s="5"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C307" s="5"/>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="4" t="s">
+      <c r="B308" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C308" s="5"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C308" s="5"/>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>60</v>
@@ -5515,7 +5514,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>60</v>
@@ -5524,25 +5523,25 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C311" s="5"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C311" s="5"/>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="4" t="s">
+      <c r="B312" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C312" s="5"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C312" s="5"/>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>60</v>
@@ -5551,16 +5550,16 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C314" s="5"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C314" s="5"/>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>60</v>
@@ -5569,7 +5568,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>60</v>
@@ -5578,25 +5577,25 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C317" s="5"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C317" s="5"/>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="3" t="s">
+      <c r="B318" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C318" s="5"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C318" s="5"/>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>60</v>
@@ -5605,7 +5604,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>60</v>
@@ -5614,7 +5613,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>60</v>
@@ -5623,7 +5622,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>60</v>
@@ -5632,7 +5631,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>60</v>
@@ -5641,7 +5640,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>60</v>
@@ -5650,25 +5649,25 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C325" s="5"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C325" s="5"/>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="2" t="s">
+      <c r="B326" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C326" s="5"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C326" s="5"/>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>60</v>
@@ -5677,7 +5676,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>60</v>
@@ -5686,7 +5685,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>60</v>
@@ -5695,69 +5694,69 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C330" s="5"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C330" s="5"/>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="9" t="s">
+      <c r="B331" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C331" s="5"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B331" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C332" s="5"/>
+      <c r="B332" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C333" s="5"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C333" s="5"/>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="2" t="s">
+      <c r="B334" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C334" s="5"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C334" s="5"/>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="3" t="s">
+      <c r="B335" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C335" s="5"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C335" s="5"/>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="4" t="s">
+      <c r="B336" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C336" s="5"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C336" s="5"/>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>60</v>
@@ -5766,34 +5765,34 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C338" s="5"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C338" s="5"/>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="7" t="s">
+      <c r="B339" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C339" s="5"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B339" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C339" s="5"/>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C340" s="5"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>60</v>
@@ -5802,58 +5801,58 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C342" s="5"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C342" s="5"/>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="9" t="s">
+      <c r="B343" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C343" s="5"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="B343" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="2" t="s">
+      <c r="B344" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C344" s="5"/>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="B345" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B345" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C345" s="5"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="B346" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C347" s="5"/>
+      <c r="B347" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>239</v>
+        <v>586</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>60</v>
@@ -5862,7 +5861,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>60</v>
@@ -5871,7 +5870,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>60</v>
@@ -5880,7 +5879,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>60</v>
@@ -5889,7 +5888,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>60</v>
@@ -5898,7 +5897,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>60</v>
@@ -5907,7 +5906,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>60</v>
@@ -5916,7 +5915,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>60</v>
@@ -5925,7 +5924,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>60</v>
@@ -5934,7 +5933,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>60</v>
@@ -5943,7 +5942,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>60</v>
@@ -5952,7 +5951,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>60</v>
@@ -5961,7 +5960,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>60</v>
@@ -5970,122 +5969,122 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C361" s="5"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B361" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C361" s="5"/>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="9" t="s">
+      <c r="B362" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C362" s="5"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B362" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="2" t="s">
+      <c r="B363" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B363" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C363" s="5"/>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="4" t="s">
+      <c r="B364" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C364" s="5"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B364" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C364" s="5"/>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="7" t="s">
+      <c r="B365" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C365" s="5"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B365" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C365" s="5"/>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="2" t="s">
+      <c r="B366" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C366" s="5"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B366" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C366" s="5"/>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="7" t="s">
+      <c r="B367" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C367" s="5"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B367" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C367" s="5"/>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B368" s="1" t="s">
+      <c r="B368" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C368" s="5"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C369" s="5"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C369" s="5"/>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="7" t="s">
+      <c r="B370" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C370" s="5"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B370" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C370" s="5"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="2" t="s">
+      <c r="B371" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C371" s="5"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C371" s="5"/>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="9" t="s">
+      <c r="B372" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C372" s="5"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="B372" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C373" s="5"/>
+      <c r="B373" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>60</v>
@@ -6094,7 +6093,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>277</v>
+        <v>122</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>60</v>
@@ -6103,7 +6102,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>60</v>
@@ -6112,24 +6111,25 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C377" s="5"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B377" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C377" s="5"/>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B378" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B378" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C378" s="5"/>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="B379" s="7" t="s">
         <v>60</v>
@@ -6137,24 +6137,23 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="B380" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="2" t="s">
+      <c r="B381" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C381" s="5"/>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>60</v>
@@ -6163,7 +6162,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>60</v>
@@ -6172,7 +6171,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>60</v>
@@ -6181,7 +6180,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>60</v>
@@ -6190,7 +6189,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>60</v>
@@ -6199,7 +6198,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>60</v>
@@ -6208,33 +6207,33 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C388" s="5"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B388" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C388" s="5"/>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="9" t="s">
+      <c r="B389" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C389" s="5"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B389" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="2" t="s">
+      <c r="B390" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C390" s="5"/>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>60</v>
@@ -6243,7 +6242,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>60</v>
@@ -6252,7 +6251,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>60</v>
@@ -6261,7 +6260,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>60</v>
@@ -6270,7 +6269,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>60</v>
@@ -6279,16 +6278,16 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C396" s="5"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C396" s="5"/>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>60</v>
@@ -6297,87 +6296,87 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C398" s="5"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B398" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C398" s="5"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="2" t="s">
+      <c r="B399" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C399" s="5"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B399" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C399" s="5"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="4" t="s">
+      <c r="B400" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C400" s="5"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B400" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C400" s="5"/>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="2" t="s">
+      <c r="B401" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C401" s="5"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C401" s="5"/>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="7" t="s">
+      <c r="B402" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C402" s="5"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B402" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C402" s="5"/>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B403" s="1" t="s">
+      <c r="B403" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C403" s="5"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C404" s="5"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B404" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C404" s="5"/>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="9" t="s">
+      <c r="B405" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C405" s="5"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B405" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C406" s="5"/>
+      <c r="B406" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>60</v>
@@ -6386,16 +6385,16 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C408" s="5"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C408" s="5"/>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>60</v>
@@ -6404,25 +6403,25 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C410" s="5"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B410" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C410" s="5"/>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="2" t="s">
+      <c r="B411" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C411" s="5"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C411" s="5"/>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>60</v>
@@ -6431,25 +6430,25 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C413" s="5"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B413" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C413" s="5"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="2" t="s">
+      <c r="B414" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C414" s="5"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C414" s="5"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>60</v>
@@ -6458,25 +6457,25 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C416" s="5"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C416" s="5"/>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="2" t="s">
+      <c r="B417" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C417" s="5"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C417" s="5"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>60</v>
@@ -6485,25 +6484,25 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C419" s="5"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B419" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C419" s="5"/>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="3" t="s">
+      <c r="B420" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C420" s="5"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C420" s="5"/>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>60</v>
@@ -6512,25 +6511,25 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C422" s="5"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B422" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C422" s="5"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="3" t="s">
+      <c r="B423" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C423" s="5"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C423" s="5"/>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>60</v>
@@ -6539,25 +6538,25 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C425" s="5"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B425" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C425" s="5"/>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="2" t="s">
+      <c r="B426" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C426" s="5"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C426" s="5"/>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>60</v>
@@ -6566,25 +6565,25 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C428" s="5"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B428" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C428" s="5"/>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="2" t="s">
+      <c r="B429" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C429" s="5"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C429" s="5"/>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>60</v>
@@ -6593,7 +6592,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>60</v>
@@ -6602,7 +6601,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>60</v>
@@ -6611,7 +6610,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>415</v>
+        <v>168</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>60</v>
@@ -6620,7 +6619,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>242</v>
+        <v>415</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>60</v>
@@ -6629,7 +6628,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>60</v>
@@ -6638,7 +6637,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>60</v>
@@ -6647,7 +6646,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>60</v>
@@ -6656,7 +6655,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>60</v>
@@ -6665,7 +6664,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>60</v>
@@ -6674,7 +6673,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>60</v>
@@ -6683,7 +6682,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>60</v>
@@ -6692,7 +6691,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>60</v>
@@ -6701,16 +6700,16 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C443" s="5"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C443" s="5"/>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>60</v>
@@ -6719,7 +6718,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>60</v>
@@ -6728,7 +6727,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>60</v>
@@ -6737,41 +6736,42 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C447" s="5"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C447" s="5"/>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" s="9" t="s">
+      <c r="B448" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C448" s="5"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="B448" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="2" t="s">
+      <c r="B449" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B449" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C449" s="5"/>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" s="19" t="s">
+      <c r="B450" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C450" s="5"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" s="19" t="s">
         <v>532</v>
-      </c>
-      <c r="B450" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="B451" s="7" t="s">
         <v>60</v>
@@ -6779,25 +6779,24 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B452" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B452" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C452" s="5"/>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="3" t="s">
+      <c r="B453" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C453" s="5"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C453" s="5"/>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>60</v>
@@ -6806,16 +6805,16 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C455" s="5"/>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C455" s="5"/>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>60</v>
@@ -6824,7 +6823,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>60</v>
@@ -6833,7 +6832,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>60</v>
@@ -6842,7 +6841,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>60</v>
@@ -6851,7 +6850,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>60</v>
@@ -6860,7 +6859,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>60</v>
@@ -6869,7 +6868,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>60</v>
@@ -6878,7 +6877,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>60</v>
@@ -6887,7 +6886,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>60</v>
@@ -6896,16 +6895,16 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C465" s="5"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A466" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C465" s="5"/>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A466" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>60</v>
@@ -6914,7 +6913,7 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>60</v>
@@ -6923,124 +6922,124 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C468" s="5"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A469" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B468" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C468" s="5"/>
-      <c r="G468" t="s">
+      <c r="B469" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C469" s="5"/>
+      <c r="G469" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A469" s="7" t="s">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A470" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B469" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C469" s="5"/>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A470" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B470" s="1" t="s">
+      <c r="B470" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C470" s="5"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C471" s="5"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A472" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B471" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C471" s="5"/>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A472" s="10" t="s">
+      <c r="B472" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C472" s="5"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A473" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B472" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A473" s="2" t="s">
+      <c r="B473" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B473" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C473" s="5"/>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A474" s="7" t="s">
+      <c r="B474" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C474" s="5"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A475" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B474" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C474" s="5"/>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A475" s="2" t="s">
+      <c r="B475" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C475" s="5"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A476" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C475" s="5"/>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A476" s="4" t="s">
+      <c r="B476" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C476" s="5"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A477" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C476" s="5"/>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A477" s="7" t="s">
+      <c r="B477" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C477" s="5"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A478" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B477" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C477" s="5"/>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A478" s="9" t="s">
-        <v>571</v>
-      </c>
       <c r="B478" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="C478" s="5"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B479" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A480" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B479" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A480" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C480" s="5"/>
+      <c r="B480" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>60</v>
@@ -7049,7 +7048,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>60</v>
@@ -7058,7 +7057,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>60</v>
@@ -7067,60 +7066,60 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C484" s="5"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B484" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C484" s="5"/>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" s="2" t="s">
+      <c r="B485" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C485" s="5"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B485" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C485" s="5"/>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" s="4" t="s">
+      <c r="B486" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C486" s="5"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B486" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C486" s="5"/>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" s="9" t="s">
+      <c r="B487" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C487" s="5"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B487" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="4" t="s">
+      <c r="B488" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B488" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C488" s="5"/>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" s="2" t="s">
+      <c r="B489" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C489" s="5"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C489" s="5"/>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>60</v>
@@ -7129,7 +7128,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>60</v>
@@ -7147,7 +7146,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>60</v>
@@ -7156,7 +7155,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>60</v>
@@ -7165,7 +7164,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>60</v>
@@ -7174,16 +7173,16 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C496" s="5"/>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C496" s="5"/>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>60</v>
@@ -7192,7 +7191,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>60</v>
@@ -7201,7 +7200,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>60</v>
@@ -7210,7 +7209,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>60</v>
@@ -7219,95 +7218,95 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C501" s="5"/>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B501" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C501" s="5"/>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" s="4" t="s">
+      <c r="B502" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C502" s="5"/>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B502" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C502" s="5"/>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" s="2" t="s">
+      <c r="B503" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C503" s="5"/>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B503" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C503" s="5"/>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="7" t="s">
+      <c r="B504" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C504" s="5"/>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B504" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C504" s="5"/>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" s="9" t="s">
-        <v>530</v>
-      </c>
       <c r="B505" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="C505" s="5"/>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B506" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B506" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C507" s="5"/>
+      <c r="B507" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C508" s="5"/>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B508" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C508" s="5"/>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" s="3" t="s">
+      <c r="B509" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C509" s="5"/>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B509" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C509" s="5"/>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" s="4" t="s">
+      <c r="B510" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C510" s="5"/>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C510" s="5"/>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>60</v>
@@ -7316,16 +7315,16 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C512" s="5"/>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A513" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C512" s="5"/>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A513" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>60</v>
@@ -7334,16 +7333,16 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C514" s="5"/>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A515" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C514" s="5"/>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A515" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>60</v>
@@ -7361,7 +7360,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>60</v>
@@ -7370,7 +7369,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>60</v>
@@ -7379,7 +7378,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>60</v>
@@ -7388,7 +7387,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>60</v>
@@ -7397,25 +7396,25 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C521" s="6"/>
+      <c r="C521" s="5"/>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C522" s="5"/>
+      <c r="C522" s="6"/>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>60</v>
@@ -7424,7 +7423,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>60</v>
@@ -7433,7 +7432,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>60</v>
@@ -7442,37 +7441,37 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C526" s="5"/>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A527" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C526" s="5"/>
-      <c r="F526" t="s">
+      <c r="B527" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C527" s="5"/>
+      <c r="F527" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A527" s="7" t="s">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A528" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B527" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C527" s="5"/>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A528" s="2" t="s">
+      <c r="B528" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C528" s="5"/>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C528" s="5"/>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A529" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>60</v>
@@ -7481,30 +7480,31 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C530" s="5"/>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B530" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C530" s="5"/>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" s="9"/>
-      <c r="B531" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B531" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C531" s="5"/>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A532" s="10" t="s">
-        <v>594</v>
-      </c>
+      <c r="A532" s="9"/>
       <c r="B532" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B533" s="7" t="s">
         <v>60</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B534" s="7" t="s">
         <v>60</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B535" s="7" t="s">
         <v>60</v>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="10" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B536" s="7" t="s">
         <v>60</v>
@@ -7536,7 +7536,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="10" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B537" s="7" t="s">
         <v>60</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="10" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B538" s="7" t="s">
         <v>60</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B539" s="7" t="s">
         <v>60</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="10" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="B540" s="7" t="s">
         <v>60</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="10" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B541" s="7" t="s">
         <v>60</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B542" s="7" t="s">
         <v>60</v>
@@ -7584,7 +7584,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B543" s="7" t="s">
         <v>60</v>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B544" s="7" t="s">
         <v>60</v>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B545" s="7" t="s">
         <v>60</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B546" s="7" t="s">
         <v>60</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B547" s="7" t="s">
         <v>60</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B548" s="7" t="s">
         <v>60</v>
@@ -7632,7 +7632,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B549" s="7" t="s">
         <v>60</v>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B550" s="7" t="s">
         <v>60</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B551" s="7" t="s">
         <v>60</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B552" s="7" t="s">
         <v>60</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B553" s="7" t="s">
         <v>60</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B554" s="7" t="s">
         <v>60</v>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B555" s="7" t="s">
         <v>60</v>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B556" s="7" t="s">
         <v>60</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B557" s="7" t="s">
         <v>60</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B558" s="7" t="s">
         <v>60</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B559" s="7" t="s">
         <v>60</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B560" s="7" t="s">
         <v>60</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B561" s="7" t="s">
         <v>60</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B562" s="7" t="s">
         <v>60</v>
@@ -7744,7 +7744,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B563" s="7" t="s">
         <v>60</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B564" s="7" t="s">
         <v>60</v>
@@ -7760,7 +7760,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" s="10" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B565" s="7" t="s">
         <v>60</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B566" s="7" t="s">
         <v>60</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" s="10" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B567" s="7" t="s">
         <v>60</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" s="10" t="s">
-        <v>78</v>
+        <v>649</v>
       </c>
       <c r="B568" s="7" t="s">
         <v>60</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" s="10" t="s">
-        <v>533</v>
+        <v>78</v>
       </c>
       <c r="B569" s="7" t="s">
         <v>60</v>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" s="10" t="s">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="B570" s="7" t="s">
         <v>60</v>
@@ -7808,7 +7808,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" s="10" t="s">
-        <v>592</v>
+        <v>650</v>
       </c>
       <c r="B571" s="7" t="s">
         <v>60</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" s="10" t="s">
-        <v>653</v>
+        <v>592</v>
       </c>
       <c r="B572" s="7" t="s">
         <v>60</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" s="10" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B573" s="7" t="s">
         <v>60</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B574" s="7" t="s">
         <v>60</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B575" s="7" t="s">
         <v>60</v>
@@ -7848,7 +7848,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" s="10" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B576" s="7" t="s">
         <v>60</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="10" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B577" s="7" t="s">
         <v>60</v>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B578" s="7" t="s">
         <v>60</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B579" s="7" t="s">
         <v>60</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B580" s="7" t="s">
         <v>60</v>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B581" s="7" t="s">
         <v>60</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B582" s="7" t="s">
         <v>60</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B583" s="7" t="s">
         <v>60</v>
@@ -7912,7 +7912,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B584" s="7" t="s">
         <v>60</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="10" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B585" s="7" t="s">
         <v>60</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="10" t="s">
-        <v>78</v>
+        <v>694</v>
       </c>
       <c r="B586" s="7" t="s">
         <v>60</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="10" t="s">
-        <v>707</v>
+        <v>78</v>
       </c>
       <c r="B587" s="7" t="s">
         <v>60</v>
@@ -7944,26 +7944,26 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B588" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D588" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="10" t="s">
-        <v>78</v>
+        <v>708</v>
       </c>
       <c r="B589" s="7" t="s">
         <v>60</v>
+      </c>
+      <c r="D589" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="10" t="s">
-        <v>709</v>
+        <v>78</v>
       </c>
       <c r="B590" s="7" t="s">
         <v>60</v>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B591" s="7" t="s">
         <v>60</v>
@@ -7979,7 +7979,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B592" s="7" t="s">
         <v>60</v>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B593" s="7" t="s">
         <v>60</v>
@@ -7995,7 +7995,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B594" s="7" t="s">
         <v>60</v>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B595" s="7" t="s">
         <v>60</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B596" s="7" t="s">
         <v>60</v>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="10" t="s">
-        <v>742</v>
+        <v>715</v>
       </c>
       <c r="B597" s="7" t="s">
         <v>60</v>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="10" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="B598" s="7" t="s">
         <v>60</v>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B599" s="7" t="s">
         <v>60</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B600" s="7" t="s">
         <v>60</v>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B601" s="7" t="s">
         <v>60</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B602" s="7" t="s">
         <v>60</v>
@@ -8067,7 +8067,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B603" s="7" t="s">
         <v>60</v>
@@ -8075,7 +8075,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B604" s="7" t="s">
         <v>60</v>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="10" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="B605" s="7" t="s">
         <v>60</v>
@@ -8091,7 +8091,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="10" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="B606" s="7" t="s">
         <v>60</v>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B607" s="7" t="s">
         <v>60</v>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B608" s="7" t="s">
         <v>60</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B609" s="7" t="s">
         <v>60</v>
@@ -8123,7 +8123,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B610" s="7" t="s">
         <v>60</v>
@@ -8131,7 +8131,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B611" s="7" t="s">
         <v>60</v>
@@ -8139,7 +8139,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" s="10" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="B612" s="7" t="s">
         <v>60</v>
@@ -8147,7 +8147,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="10" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="B613" s="7" t="s">
         <v>60</v>
@@ -8155,7 +8155,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B614" s="7" t="s">
         <v>60</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B615" s="7" t="s">
         <v>60</v>
@@ -8171,7 +8171,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B616" s="7" t="s">
         <v>60</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B617" s="7" t="s">
         <v>60</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B618" s="7" t="s">
         <v>60</v>
@@ -8195,7 +8195,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B619" s="7" t="s">
         <v>60</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="10" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B620" s="7" t="s">
         <v>60</v>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" s="10" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="B621" s="7" t="s">
         <v>60</v>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B622" s="7" t="s">
         <v>60</v>
@@ -8227,7 +8227,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B623" s="7" t="s">
         <v>60</v>
@@ -8235,7 +8235,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B624" s="7" t="s">
         <v>60</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B625" s="7" t="s">
         <v>60</v>
@@ -8251,7 +8251,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B626" s="7" t="s">
         <v>60</v>
@@ -8259,7 +8259,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" s="10" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B627" s="7" t="s">
         <v>60</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B628" s="7" t="s">
         <v>60</v>
@@ -8275,7 +8275,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B629" s="7" t="s">
         <v>60</v>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B630" s="7" t="s">
         <v>60</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B631" s="7" t="s">
         <v>60</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" s="10" t="s">
-        <v>413</v>
+        <v>750</v>
       </c>
       <c r="B632" s="7" t="s">
         <v>60</v>
@@ -8307,7 +8307,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" s="10" t="s">
-        <v>751</v>
+        <v>413</v>
       </c>
       <c r="B633" s="7" t="s">
         <v>60</v>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B634" s="7" t="s">
         <v>60</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B635" s="7" t="s">
         <v>60</v>
@@ -8331,7 +8331,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" s="10" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B636" s="7" t="s">
         <v>60</v>
@@ -8339,7 +8339,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B637" s="7" t="s">
         <v>60</v>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B638" s="7" t="s">
         <v>60</v>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B639" s="7" t="s">
         <v>60</v>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" s="10" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="B640" s="7" t="s">
         <v>60</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" s="10" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="B641" s="7" t="s">
         <v>60</v>
@@ -8379,23 +8379,23 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="B642" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="B642" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A643" s="11" t="s">
+      <c r="B643" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644" s="11" t="s">
         <v>759</v>
-      </c>
-      <c r="B643" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A644" s="7" t="s">
-        <v>760</v>
       </c>
       <c r="B644" s="7" t="s">
         <v>60</v>
@@ -8403,15 +8403,15 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B645" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="B645" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A646" s="10" t="s">
-        <v>761</v>
       </c>
       <c r="B646" s="7" t="s">
         <v>60</v>
@@ -8419,7 +8419,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B647" s="7" t="s">
         <v>60</v>
@@ -8427,7 +8427,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B648" s="7" t="s">
         <v>60</v>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B649" s="7" t="s">
         <v>60</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B650" s="7" t="s">
         <v>60</v>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B651" s="7" t="s">
         <v>60</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" s="10" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B652" s="7" t="s">
         <v>60</v>
@@ -8467,15 +8467,15 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="B653" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" s="10" t="s">
         <v>771</v>
-      </c>
-      <c r="B653" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A654" s="20" t="s">
-        <v>339</v>
       </c>
       <c r="B654" s="7" t="s">
         <v>60</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B655" s="7" t="s">
         <v>60</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B656" s="7" t="s">
         <v>60</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B657" s="7" t="s">
         <v>60</v>
@@ -8507,7 +8507,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" s="20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B658" s="7" t="s">
         <v>60</v>
@@ -8515,7 +8515,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B659" s="7" t="s">
         <v>60</v>
@@ -8523,7 +8523,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B660" s="7" t="s">
         <v>60</v>
@@ -8531,7 +8531,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B661" s="7" t="s">
         <v>60</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B662" s="7" t="s">
         <v>60</v>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B663" s="7" t="s">
         <v>60</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" s="20" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B664" s="7" t="s">
         <v>60</v>
@@ -8563,7 +8563,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B665" s="7" t="s">
         <v>60</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" s="20" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B666" s="7" t="s">
         <v>60</v>
@@ -8579,7 +8579,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B667" s="7" t="s">
         <v>60</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B668" s="7" t="s">
         <v>60</v>
@@ -8595,7 +8595,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B669" s="7" t="s">
         <v>60</v>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B670" s="7" t="s">
         <v>60</v>
@@ -8611,7 +8611,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B671" s="7" t="s">
         <v>60</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B672" s="7" t="s">
         <v>60</v>
@@ -8627,7 +8627,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B673" s="7" t="s">
         <v>60</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B674" s="7" t="s">
         <v>60</v>
@@ -8643,7 +8643,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" s="20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B675" s="7" t="s">
         <v>60</v>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B676" s="7" t="s">
         <v>60</v>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B677" s="7" t="s">
         <v>60</v>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B678" s="7" t="s">
         <v>60</v>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" s="20" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B679" s="7" t="s">
         <v>60</v>
@@ -8683,7 +8683,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" s="20" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B680" s="7" t="s">
         <v>60</v>
@@ -8691,135 +8691,135 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="B681" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="B681" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A682" s="4" t="s">
+      <c r="B682" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="B682" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A683" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A684" s="9" t="s">
+      <c r="A684" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="B684" s="7" t="s">
+      <c r="B685" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A685" s="2" t="s">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B685" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A686" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A687" s="7" t="s">
+      <c r="A687" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B687" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A688" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B688" s="1" t="s">
+      <c r="B688" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="3" t="s">
-        <v>579</v>
+        <v>310</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A690" s="2" t="s">
-        <v>316</v>
+      <c r="A690" s="3" t="s">
+        <v>579</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A691" s="11" t="s">
+      <c r="A691" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A692" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="B691" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A692" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B692" s="1" t="s">
+      <c r="B692" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A694" s="3" t="s">
-        <v>312</v>
+      <c r="A694" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A695" s="10" t="s">
+      <c r="A695" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A696" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B695" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A696" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B696" s="1" t="s">
+      <c r="B696" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>61</v>
@@ -8827,178 +8827,178 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A699" s="10" t="s">
+      <c r="A699" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A700" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B699" s="7" t="s">
+      <c r="B700" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A700" s="2" t="s">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A701" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B700" s="1" t="s">
+      <c r="B701" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A701" s="10" t="s">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A702" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B701" s="7" t="s">
+      <c r="B702" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D701" t="s">
+      <c r="D702" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A702" s="2" t="s">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A703" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="B702" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A703" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A704" s="7" t="s">
+      <c r="A704" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="B704" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A705" s="9" t="s">
-        <v>578</v>
       </c>
       <c r="B705" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A706" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B706" s="1" t="s">
+      <c r="A706" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B706" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
-        <v>311</v>
+        <v>414</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A708" s="2" t="s">
-        <v>327</v>
+      <c r="A708" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A709" s="10" t="s">
+      <c r="A709" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="B709" s="7" t="s">
+      <c r="B710" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A710" s="2" t="s">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B710" s="1" t="s">
+      <c r="B711" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A711" s="10" t="s">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B711" s="7" t="s">
+      <c r="B712" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A712" s="2" t="s">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B712" s="1" t="s">
+      <c r="B713" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A713" s="7" t="s">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B713" s="7" t="s">
+      <c r="B714" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A714" s="3" t="s">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="B714" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A715" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A716" s="7" t="s">
+      <c r="A716" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B716" s="7" t="s">
+      <c r="B717" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A717" s="2" t="s">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B717" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A718" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B718" s="7" t="s">
+      <c r="B718" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B719" s="7" t="s">
         <v>61</v>
@@ -9006,7 +9006,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B720" s="7" t="s">
         <v>61</v>
@@ -9014,7 +9014,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B721" s="7" t="s">
         <v>61</v>
@@ -9022,47 +9022,47 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B722" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A723" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B723" s="1" t="s">
+      <c r="A723" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B723" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A725" s="3" t="s">
-        <v>330</v>
+      <c r="A725" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A726" s="2" t="s">
-        <v>331</v>
+      <c r="A726" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A727" s="3" t="s">
-        <v>332</v>
+      <c r="A727" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>61</v>
@@ -9070,63 +9070,63 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A729" s="4" t="s">
-        <v>335</v>
+      <c r="A729" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A730" s="7" t="s">
-        <v>337</v>
+      <c r="A730" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A731" s="3" t="s">
+      <c r="A731" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B731" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A732" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B732" s="1" t="s">
+      <c r="B732" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A734" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="B734" s="7" t="s">
+      <c r="A734" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B734" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B735" s="7" t="s">
         <v>61</v>
@@ -9134,7 +9134,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B736" s="7" t="s">
         <v>61</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B737" s="7" t="s">
         <v>61</v>
@@ -9150,15 +9150,15 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B738" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A739" s="20" t="s">
-        <v>343</v>
+      <c r="A739" s="10" t="s">
+        <v>605</v>
       </c>
       <c r="B739" s="7" t="s">
         <v>61</v>
@@ -9166,7 +9166,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B740" s="7" t="s">
         <v>61</v>
@@ -9174,7 +9174,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B741" s="7" t="s">
         <v>61</v>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" s="20" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B742" s="7" t="s">
         <v>61</v>
@@ -9190,7 +9190,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B743" s="7" t="s">
         <v>61</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B744" s="7" t="s">
         <v>61</v>
@@ -9206,7 +9206,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B745" s="7" t="s">
         <v>61</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B746" s="7" t="s">
         <v>61</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B747" s="7" t="s">
         <v>61</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B748" s="7" t="s">
         <v>61</v>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B749" s="7" t="s">
         <v>61</v>
@@ -9246,7 +9246,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B750" s="7" t="s">
         <v>61</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B751" s="7" t="s">
         <v>61</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B752" s="7" t="s">
         <v>61</v>
@@ -9270,7 +9270,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" s="20" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B753" s="7" t="s">
         <v>61</v>
@@ -9278,7 +9278,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B754" s="7" t="s">
         <v>61</v>
@@ -9286,7 +9286,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B755" s="7" t="s">
         <v>61</v>
@@ -9294,7 +9294,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" s="20" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B756" s="7" t="s">
         <v>61</v>
@@ -9302,7 +9302,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B757" s="7" t="s">
         <v>61</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B758" s="7" t="s">
         <v>61</v>
@@ -9318,7 +9318,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B759" s="7" t="s">
         <v>61</v>
@@ -9326,7 +9326,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B760" s="7" t="s">
         <v>61</v>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B761" s="7" t="s">
         <v>61</v>
@@ -9342,7 +9342,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B762" s="7" t="s">
         <v>61</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B763" s="7" t="s">
         <v>61</v>
@@ -9358,7 +9358,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B764" s="7" t="s">
         <v>61</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B765" s="7" t="s">
         <v>61</v>
@@ -9374,7 +9374,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B766" s="7" t="s">
         <v>61</v>
@@ -9382,7 +9382,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B767" s="7" t="s">
         <v>61</v>
@@ -9390,7 +9390,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B768" s="7" t="s">
         <v>61</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B769" s="7" t="s">
         <v>61</v>
@@ -9406,7 +9406,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B770" s="7" t="s">
         <v>61</v>
@@ -9414,7 +9414,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B771" s="7" t="s">
         <v>61</v>
@@ -9422,23 +9422,23 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" s="20" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="B772" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A773" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="B773" s="6" t="s">
-        <v>59</v>
+      <c r="A773" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B773" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H772">
-    <sortCondition ref="B750:B772"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H773">
+    <sortCondition ref="B773"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SuMSO/materials for implementation/SuMSO vocabulary.xlsx
+++ b/SuMSO/materials for implementation/SuMSO vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaubb\Desktop\Sustainable-Meat-Systems-Ontology\SuMSO\materials for implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70BA56-DC75-4444-B49F-2720B1AB4BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E8649-3C8D-476B-B81E-80A091CFE32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8FC6B3B4-AE2C-481D-A7A9-F5814CA108D7}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="SuMSO Terms" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/SuMSO/materials for implementation/SuMSO vocabulary.xlsx
+++ b/SuMSO/materials for implementation/SuMSO vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaubb\Desktop\Sustainable-Meat-Systems-Ontology\SuMSO\materials for implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0917F7-4988-4796-ACE5-9F582670A6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9EE7E1-EF50-4DFF-8177-4C62780F3776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8FC6B3B4-AE2C-481D-A7A9-F5814CA108D7}"/>
   </bookViews>
@@ -2467,7 +2467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2505,7 +2505,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6384,7 +6383,7 @@
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="21" t="s">
+      <c r="A415" s="7" t="s">
         <v>648</v>
       </c>
       <c r="B415" s="7" t="s">

--- a/SuMSO/materials for implementation/SuMSO vocabulary.xlsx
+++ b/SuMSO/materials for implementation/SuMSO vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaubb\Desktop\Sustainable-Meat-Systems-Ontology\SuMSO\materials for implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9EE7E1-EF50-4DFF-8177-4C62780F3776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F1AB93-0E61-446B-B51A-1E914A717D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8FC6B3B4-AE2C-481D-A7A9-F5814CA108D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FC6B3B4-AE2C-481D-A7A9-F5814CA108D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Guidelines" sheetId="4" r:id="rId1"/>
@@ -2103,9 +2103,6 @@
     <t xml:space="preserve">Description </t>
   </si>
   <si>
-    <t xml:space="preserve">This table provides the list of SuMSO terms. Reference for each term to is provided. We corresponded each term to the FSSMF pillar to which it primarily pertains. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The terms highlighted in blue are those currently covered within OWL SuMSO core ontological module. Terms presenting an “*” are those (also) proposed by stakeholders. Terms presenting a “†” are those stakeholders considered the most relevant and on which their contributions and suggestions for revisions mainly focused. Future implementations will incorporate the rest of the vocabulary and further terms into SuMSO. </t>
   </si>
   <si>
@@ -2356,6 +2353,9 @@
   </si>
   <si>
     <t>worker's socio-cultural background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This table provides the list of SuMSO terms. We corresponded each term to the FSSMF pillar to which it primarily pertains. </t>
   </si>
 </sst>
 </file>
@@ -2841,13 +2841,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485B4C25-27EA-41B2-9566-D9A8B8E9B093}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="91.21875" customWidth="1"/>
+    <col min="1" max="1" width="92.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2857,7 +2857,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -2870,17 +2870,17 @@
     </row>
     <row r="5" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>688</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -2896,7 +2896,7 @@
   </sheetPr>
   <dimension ref="A1:M762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A737" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A736" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -4140,7 +4140,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>59</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>59</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="20" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>59</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="20" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>59</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>59</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="20" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>59</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>59</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>59</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>59</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="20" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>60</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>60</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>60</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B246" s="7" t="s">
         <v>60</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B252" s="7" t="s">
         <v>60</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>60</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>60</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B284" s="7" t="s">
         <v>60</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B285" s="7" t="s">
         <v>60</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>60</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B309" s="7" t="s">
         <v>60</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B313" s="7" t="s">
         <v>60</v>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B323" s="7" t="s">
         <v>60</v>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B332" s="7" t="s">
         <v>60</v>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B349" s="7" t="s">
         <v>60</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B364" s="7" t="s">
         <v>60</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B368" s="7" t="s">
         <v>60</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B374" s="7" t="s">
         <v>60</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B385" s="7" t="s">
         <v>60</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B390" s="7" t="s">
         <v>60</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B391" s="7" t="s">
         <v>60</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B392" s="7" t="s">
         <v>60</v>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B393" s="7" t="s">
         <v>60</v>
@@ -6205,7 +6205,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B394" s="7" t="s">
         <v>60</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B395" s="7" t="s">
         <v>60</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B396" s="7" t="s">
         <v>60</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B397" s="7" t="s">
         <v>60</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>60</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B433" s="7" t="s">
         <v>60</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B434" s="7" t="s">
         <v>60</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B435" s="7" t="s">
         <v>60</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B436" s="7" t="s">
         <v>60</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B437" s="7" t="s">
         <v>60</v>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B438" s="7" t="s">
         <v>60</v>
@@ -6590,7 +6590,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B439" s="7" t="s">
         <v>60</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B440" s="7" t="s">
         <v>60</v>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B469" s="7" t="s">
         <v>60</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B470" s="7" t="s">
         <v>60</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B471" s="7" t="s">
         <v>60</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B472" s="7" t="s">
         <v>60</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B473" s="7" t="s">
         <v>60</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B474" s="7" t="s">
         <v>60</v>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B475" s="7" t="s">
         <v>60</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B476" s="7" t="s">
         <v>60</v>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B477" s="7" t="s">
         <v>60</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B500" s="7" t="s">
         <v>60</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B501" s="7" t="s">
         <v>60</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B502" s="7" t="s">
         <v>60</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B503" s="7" t="s">
         <v>60</v>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B504" s="7" t="s">
         <v>60</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B505" s="7" t="s">
         <v>60</v>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B506" s="7" t="s">
         <v>60</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B507" s="7" t="s">
         <v>60</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B508" s="7" t="s">
         <v>60</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B509" s="7" t="s">
         <v>60</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B520" s="7" t="s">
         <v>60</v>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B521" s="7" t="s">
         <v>60</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B540" s="7" t="s">
         <v>60</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B541" s="7" t="s">
         <v>60</v>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B542" s="7" t="s">
         <v>60</v>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B554" s="7" t="s">
         <v>60</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B600" s="7" t="s">
         <v>60</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B602" s="7" t="s">
         <v>60</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>60</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B624" s="7" t="s">
         <v>60</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B625" s="7" t="s">
         <v>60</v>
@@ -8206,7 +8206,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B626" s="7" t="s">
         <v>60</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B646" s="7" t="s">
         <v>60</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B680" s="7" t="s">
         <v>61</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>61</v>
@@ -9312,7 +9312,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B759" s="7" t="s">
         <v>61</v>
